--- a/output/ct_closure_summary.xlsx
+++ b/output/ct_closure_summary.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,31 +670,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>New Haven School District</t>
+          <t>Clinton School District</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0930011</t>
+          <t>0270011</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cortlandt V.R. Creed Health and Sport Sciences High School</t>
+          <t>Abraham Pierson School</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0936811</t>
+          <t>0270111</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>090279000148</t>
+          <t>090081000131</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="K6" s="2">
-        <v>34881</v>
+        <v>30864</v>
       </c>
       <c r="L6" s="2">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="M6">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7">
@@ -738,22 +738,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Clinton School District</t>
+          <t>Hartford School District</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0270011</t>
+          <t>0640011</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Abraham Pierson School</t>
+          <t>High School, Inc.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0270111</t>
+          <t>0647611</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>090081000131</t>
+          <t>090192001552</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="K7" s="2">
-        <v>30864</v>
+        <v>39995</v>
       </c>
       <c r="L7" s="2">
         <v>43646</v>
       </c>
       <c r="M7">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hartford School District</t>
+          <t>Ledyard School District</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0640011</t>
+          <t>0720011</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Capital Community College Magnet Academy</t>
+          <t>Ledyard Center School</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0643911</t>
+          <t>0720111</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>090192001650</t>
+          <t>090216000400</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="K8" s="2">
-        <v>41877</v>
+        <v>30864</v>
       </c>
       <c r="L8" s="2">
-        <v>43646</v>
+        <v>43637</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9">
@@ -856,22 +856,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hartford School District</t>
+          <t>Madison School District</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0640011</t>
+          <t>0760011</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Culinary Arts Academy at Weaver High School</t>
+          <t>Island Avenue Elementary School</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0646011</t>
+          <t>0760211</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>090192001522</t>
+          <t>090228000414</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="K9" s="2">
-        <v>39685</v>
+        <v>30864</v>
       </c>
       <c r="L9" s="2">
         <v>43646</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10">
@@ -915,22 +915,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hartford School District</t>
+          <t>Manchester School District</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0640011</t>
+          <t>0770011</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HPHS Engineering and Green Technology Academy</t>
+          <t>Washington School</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0647211</t>
+          <t>0771411</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>090192001574</t>
+          <t>090231000431</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="K10" s="2">
-        <v>39995</v>
+        <v>30864</v>
       </c>
       <c r="L10" s="2">
         <v>43646</v>
       </c>
       <c r="M10">
-        <v>370</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11">
@@ -974,22 +974,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hartford School District</t>
+          <t>Stonington School District</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0640011</t>
+          <t>1370011</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>HPHS Law and Government Academy</t>
+          <t>West Broad Street School</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0647411</t>
+          <t>1370411</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>090192001576</t>
+          <t>090438000882</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="K11" s="2">
-        <v>39995</v>
+        <v>30864</v>
       </c>
       <c r="L11" s="2">
         <v>43646</v>
       </c>
       <c r="M11">
-        <v>324</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1033,22 +1033,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hartford School District</t>
+          <t>Stonington School District</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0640011</t>
+          <t>1370011</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HPHS Nursing and Health Sciences Academy</t>
+          <t>Pawcatuck Middle School</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0647511</t>
+          <t>1375111</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>090192001559</t>
+          <t>090438000879</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="K12" s="2">
-        <v>39995</v>
+        <v>30864</v>
       </c>
       <c r="L12" s="2">
         <v>43646</v>
       </c>
       <c r="M12">
-        <v>344</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13">
@@ -1092,22 +1092,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hartford School District</t>
+          <t>Torrington School District</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0640011</t>
+          <t>1430011</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>High School, Inc.</t>
+          <t>East School</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0647611</t>
+          <t>1430111</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>090192001552</t>
+          <t>090459000916</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1131,13 +1131,10 @@
         </is>
       </c>
       <c r="K13" s="2">
-        <v>39995</v>
+        <v>30864</v>
       </c>
       <c r="L13" s="2">
         <v>43646</v>
-      </c>
-      <c r="M13">
-        <v>190</v>
       </c>
     </row>
     <row r="14">
@@ -1151,22 +1148,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hartford School District</t>
+          <t>Westport School District</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0640011</t>
+          <t>1580011</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Journalism and Media Academy</t>
+          <t>Coleytown Middle School</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0647711</t>
+          <t>1585311</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1181,7 +1178,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>090192001562</t>
+          <t>090504001052</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1190,13 +1187,13 @@
         </is>
       </c>
       <c r="K14" s="2">
-        <v>39995</v>
+        <v>30864</v>
       </c>
       <c r="L14" s="2">
         <v>43646</v>
       </c>
       <c r="M14">
-        <v>170</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15">
@@ -1210,27 +1207,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ledyard School District</t>
+          <t>Regional School District 17</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0720011</t>
+          <t>2170012</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ledyard Center School</t>
+          <t>Haddam Elementary School</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0720111</t>
+          <t>2170112</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Public Schools</t>
+          <t>Regional Schools</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1240,7 +1237,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>090216000400</t>
+          <t>090353900758</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1249,42 +1246,42 @@
         </is>
       </c>
       <c r="K15" s="2">
-        <v>30864</v>
+        <v>37438</v>
       </c>
       <c r="L15" s="2">
-        <v>43637</v>
+        <v>43646</v>
       </c>
       <c r="M15">
-        <v>374</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Madison School District</t>
+          <t>Groton School District</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0760011</t>
+          <t>0590011</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Island Avenue Elementary School</t>
+          <t>S. B. Butler School</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0760211</t>
+          <t>0590111</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1299,7 +1296,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>090228000414</t>
+          <t>090177000325</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1311,39 +1308,39 @@
         <v>30864</v>
       </c>
       <c r="L16" s="2">
-        <v>43646</v>
+        <v>44377</v>
       </c>
       <c r="M16">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Manchester School District</t>
+          <t>Groton School District</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0770011</t>
+          <t>0590011</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Washington School</t>
+          <t>Claude Chester School</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0771411</t>
+          <t>0590311</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1358,7 +1355,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>090231000431</t>
+          <t>090177000314</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1370,39 +1367,39 @@
         <v>30864</v>
       </c>
       <c r="L17" s="2">
-        <v>43646</v>
+        <v>44377</v>
       </c>
       <c r="M17">
-        <v>251</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Stonington School District</t>
+          <t>Middletown School District</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1370011</t>
+          <t>0830011</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>West Broad Street School</t>
+          <t>Keigwin Middle School</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1370411</t>
+          <t>0831511</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1417,7 +1414,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>090438000882</t>
+          <t>090249000456</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1426,42 +1423,42 @@
         </is>
       </c>
       <c r="K18" s="2">
-        <v>30864</v>
+        <v>35612</v>
       </c>
       <c r="L18" s="2">
-        <v>43646</v>
+        <v>44377</v>
       </c>
       <c r="M18">
-        <v>111</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Stonington School District</t>
+          <t>Stafford School District</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1370011</t>
+          <t>1340011</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pawcatuck Middle School</t>
+          <t>Staffordville School</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1375111</t>
+          <t>1340311</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1476,7 +1473,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>090438000879</t>
+          <t>090429000847</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1488,39 +1485,39 @@
         <v>30864</v>
       </c>
       <c r="L19" s="2">
-        <v>43646</v>
+        <v>44377</v>
       </c>
       <c r="M19">
-        <v>282</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Torrington School District</t>
+          <t>Mansfield School District</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1430011</t>
+          <t>0780011</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>East School</t>
+          <t>Southeast Elementary School</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1430111</t>
+          <t>0780511</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1535,7 +1532,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>090459000916</t>
+          <t>090234000435</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1544,39 +1541,42 @@
         </is>
       </c>
       <c r="K20" s="2">
-        <v>30864</v>
+        <v>32325</v>
       </c>
       <c r="L20" s="2">
-        <v>43646</v>
+        <v>44742</v>
+      </c>
+      <c r="M20">
+        <v>161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Westport School District</t>
+          <t>Bristol School District</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1580011</t>
+          <t>0170011</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Coleytown Middle School</t>
+          <t>Edgewood School</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1585311</t>
+          <t>0170311</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>090504001052</t>
+          <t>090051000096</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1600,47 +1600,47 @@
         </is>
       </c>
       <c r="K21" s="2">
-        <v>30864</v>
+        <v>35977</v>
       </c>
       <c r="L21" s="2">
-        <v>43646</v>
+        <v>45107</v>
       </c>
       <c r="M21">
-        <v>456</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Regional School District 17</t>
+          <t>Brookfield School District</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2170012</t>
+          <t>0180011</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Haddam Elementary School</t>
+          <t>Center Elementary School</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2170112</t>
+          <t>0180311</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Regional Schools</t>
+          <t>Public Schools</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>090353900758</t>
+          <t>090054000110</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1659,47 +1659,47 @@
         </is>
       </c>
       <c r="K22" s="2">
-        <v>37438</v>
+        <v>30864</v>
       </c>
       <c r="L22" s="2">
-        <v>43646</v>
+        <v>45107</v>
       </c>
       <c r="M22">
-        <v>176</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Learn</t>
+          <t>Brookfield School District</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2450014</t>
+          <t>0180011</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dual Language &amp; Arts Magnet Middle School</t>
+          <t>Huckleberry Hill Elementary School</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2455014</t>
+          <t>0180411</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Regional Education Service Center Schools</t>
+          <t>Public Schools</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>090345001556</t>
+          <t>090054001186</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1718,42 +1718,42 @@
         </is>
       </c>
       <c r="K23" s="2">
-        <v>39995</v>
+        <v>35612</v>
       </c>
       <c r="L23" s="2">
-        <v>44012</v>
+        <v>45107</v>
       </c>
       <c r="M23">
-        <v>148</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Groton School District</t>
+          <t>Mansfield School District</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0590011</t>
+          <t>0780011</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>S. B. Butler School</t>
+          <t>Mansfield Elementary at Goodwin</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0590111</t>
+          <t>0780211</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>090177000325</t>
+          <t>090234000434</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1780,39 +1780,39 @@
         <v>30864</v>
       </c>
       <c r="L24" s="2">
-        <v>44377</v>
+        <v>45107</v>
       </c>
       <c r="M24">
-        <v>250</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Groton School District</t>
+          <t>Mansfield School District</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0590011</t>
+          <t>0780011</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Claude Chester School</t>
+          <t>Mansfield Elementary at Vinton</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0590311</t>
+          <t>0780411</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>090177000314</t>
+          <t>090234000432</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1839,39 +1839,39 @@
         <v>30864</v>
       </c>
       <c r="L25" s="2">
-        <v>44377</v>
+        <v>45107</v>
       </c>
       <c r="M25">
-        <v>316</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Middletown School District</t>
+          <t>New London School District</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0830011</t>
+          <t>0950011</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Keigwin Middle School</t>
+          <t>Harbor Elementary School</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0831511</t>
+          <t>0950611</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>090249000456</t>
+          <t>090282001685</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1895,42 +1895,42 @@
         </is>
       </c>
       <c r="K26" s="2">
-        <v>35612</v>
+        <v>41876</v>
       </c>
       <c r="L26" s="2">
-        <v>44377</v>
+        <v>45099</v>
       </c>
       <c r="M26">
-        <v>289</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>New Haven School District</t>
+          <t>Manchester School District</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0930011</t>
+          <t>0770011</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>West Rock Authors Academy</t>
+          <t>Martin School</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0934911</t>
+          <t>0771611</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>090279000647</t>
+          <t>090231000425</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1954,895 +1954,13 @@
         </is>
       </c>
       <c r="K27" s="2">
-        <v>35247</v>
+        <v>30864</v>
       </c>
       <c r="L27" s="2">
-        <v>44377</v>
+        <v>45473</v>
       </c>
       <c r="M27">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>2021</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Stafford School District</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1340011</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Staffordville School</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1340311</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>090429000847</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K28" s="2">
-        <v>30864</v>
-      </c>
-      <c r="L28" s="2">
-        <v>44377</v>
-      </c>
-      <c r="M28">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>2021</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Waterbury School District</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1510011</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Waterbury Arts Magnet School (Middle)</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1515011</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>090483001395</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K29" s="2">
-        <v>38534</v>
-      </c>
-      <c r="L29" s="2">
-        <v>44377</v>
-      </c>
-      <c r="M29">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>2021</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Learn</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2450014</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Riverside Magnet School at Goodwin University</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2450314</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Regional Education Service Center Schools</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>090345001627</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K30" s="2">
-        <v>41456</v>
-      </c>
-      <c r="L30" s="2">
-        <v>44377</v>
-      </c>
-      <c r="M30">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>2021</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Learn</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2450014</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Connecticut River Academy at Goodwin University</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2456014</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Regional Education Service Center Schools</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>090345001581</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K31" s="2">
-        <v>40360</v>
-      </c>
-      <c r="L31" s="2">
-        <v>44377</v>
-      </c>
-      <c r="M31">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>2022</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Mansfield School District</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0780011</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Southeast Elementary School</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0780511</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>090234000435</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K32" s="2">
-        <v>32325</v>
-      </c>
-      <c r="L32" s="2">
-        <v>44742</v>
-      </c>
-      <c r="M32">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>2022</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Winchester School District</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1620011</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Batcheller Early Education Center</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1620411</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>090516001077</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K33" s="2">
-        <v>30864</v>
-      </c>
-      <c r="L33" s="2">
-        <v>44742</v>
-      </c>
-      <c r="M33">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>2023</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Bristol School District</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0170011</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Edgewood School</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0170311</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>090051000096</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K34" s="2">
-        <v>35977</v>
-      </c>
-      <c r="L34" s="2">
-        <v>45107</v>
-      </c>
-      <c r="M34">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>2023</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Brookfield School District</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0180011</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Center Elementary School</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0180311</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>090054000110</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K35" s="2">
-        <v>30864</v>
-      </c>
-      <c r="L35" s="2">
-        <v>45107</v>
-      </c>
-      <c r="M35">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>2023</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Brookfield School District</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0180011</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Huckleberry Hill Elementary School</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0180411</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>090054001186</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K36" s="2">
-        <v>35612</v>
-      </c>
-      <c r="L36" s="2">
-        <v>45107</v>
-      </c>
-      <c r="M36">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>2023</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Mansfield School District</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0780011</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Mansfield Elementary at Goodwin</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0780211</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>090234000434</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K37" s="2">
-        <v>30864</v>
-      </c>
-      <c r="L37" s="2">
-        <v>45107</v>
-      </c>
-      <c r="M37">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>2023</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Mansfield School District</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0780011</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Mansfield Elementary at Vinton</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0780411</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>090234000432</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K38" s="2">
-        <v>30864</v>
-      </c>
-      <c r="L38" s="2">
-        <v>45107</v>
-      </c>
-      <c r="M38">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>2023</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>New London School District</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0950011</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Harbor Elementary School</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0950611</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>090282001685</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K39" s="2">
-        <v>41876</v>
-      </c>
-      <c r="L39" s="2">
-        <v>45099</v>
-      </c>
-      <c r="M39">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>2024</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Manchester School District</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0770011</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Martin School</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0771611</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>090231000425</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K40" s="2">
-        <v>30864</v>
-      </c>
-      <c r="L40" s="2">
-        <v>45473</v>
-      </c>
-      <c r="M40">
         <v>217</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>2024</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>New Fairfield School District</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0910011</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Consolidated School</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0910111</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>090273000535</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K41" s="2">
-        <v>30864</v>
-      </c>
-      <c r="L41" s="2">
-        <v>45473</v>
-      </c>
-      <c r="M41">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>2024</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Norwich School District</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1040011</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Bishop School Early Learning Center</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1040111</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Public Schools</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Traditional/General Education</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>090312000663</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Not Charter</t>
-        </is>
-      </c>
-      <c r="K42" s="2">
-        <v>30864</v>
-      </c>
-      <c r="L42" s="2">
-        <v>45148</v>
       </c>
     </row>
   </sheetData>
